--- a/Documents/Session Notes/SessionNotes_1.xlsx
+++ b/Documents/Session Notes/SessionNotes_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcgill-my.sharepoint.com/personal/qi_chen6_mail_mcgill_ca/Documents/ECSE 429/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcgill-my.sharepoint.com/personal/qi_chen6_mail_mcgill_ca/Documents/ECSE 429/ECSE429SoftwareTesting/Documents/Session Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="415" documentId="13_ncr:1_{76438F66-20F9-4164-B36D-2C14EAB23268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59F13096-0824-4E3D-88DB-FA84281FDBF4}"/>
+  <xr:revisionPtr revIDLastSave="417" documentId="13_ncr:1_{76438F66-20F9-4164-B36D-2C14EAB23268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C498308-0F30-4362-A643-CB686B54A102}"/>
   <bookViews>
-    <workbookView xWindow="8325" yWindow="5985" windowWidth="22785" windowHeight="13905" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1065" yWindow="5595" windowWidth="22785" windowHeight="13905" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -193,9 +193,6 @@
     <t>No options given for todos objects</t>
   </si>
   <si>
-    <t>All the documented API endpoints and their methods work as intended when executing the most expected path</t>
-  </si>
-  <si>
     <t>Small inconsistencies such as the ordering of todos instances after adding new todos instances in the GUI page are found</t>
   </si>
   <si>
@@ -217,9 +214,6 @@
     <t>Check if the server is properly sanitizing the user inputs</t>
   </si>
   <si>
-    <t>Verify that unallowed methods are properly blocked from new requests</t>
-  </si>
-  <si>
     <t>Is there any different between the POST and PUT methods for a todo instance?</t>
   </si>
   <si>
@@ -254,6 +248,12 @@
   </si>
   <si>
     <t>qi.chen6@mail.mcgill.ca</t>
+  </si>
+  <si>
+    <t>All the documented API endpoints and their methods work as intended when executing the most expected path except PUT and POST</t>
+  </si>
+  <si>
+    <t>Verify that unallowed methods are properly blocked from new requests and returns the correct status code</t>
   </si>
 </sst>
 </file>
@@ -1079,10 +1079,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -1283,7 +1279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I175"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -1349,7 +1345,7 @@
         <v>37</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H2" s="11"/>
     </row>
@@ -1393,7 +1389,7 @@
         <v>39</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H4" s="14"/>
     </row>
@@ -1525,7 +1521,7 @@
         <v>23</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="11"/>
@@ -1551,7 +1547,7 @@
         <v>44</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="6"/>
@@ -1576,7 +1572,7 @@
         <v>45</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="6"/>
@@ -3069,7 +3065,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1"/>
@@ -3109,7 +3105,7 @@
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3231,7 +3227,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -3243,7 +3239,7 @@
     <row r="14" spans="1:8" ht="15" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -3255,7 +3251,7 @@
     <row r="15" spans="1:8" ht="15" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -3267,7 +3263,7 @@
     <row r="16" spans="1:8" ht="15" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -3279,7 +3275,7 @@
     <row r="17" spans="1:10" ht="15" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -3313,7 +3309,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -3322,13 +3318,13 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="J20" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -3337,13 +3333,13 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="J21" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -3357,7 +3353,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -3369,7 +3365,7 @@
     <row r="24" spans="1:10" ht="15" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3381,7 +3377,7 @@
     <row r="25" spans="1:10" ht="15" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3393,13 +3389,13 @@
     <row r="26" spans="1:10" ht="15" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1">

--- a/Documents/Session Notes/SessionNotes_1.xlsx
+++ b/Documents/Session Notes/SessionNotes_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcgill-my.sharepoint.com/personal/qi_chen6_mail_mcgill_ca/Documents/ECSE 429/ECSE429SoftwareTesting/Documents/Session Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="417" documentId="13_ncr:1_{76438F66-20F9-4164-B36D-2C14EAB23268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C498308-0F30-4362-A643-CB686B54A102}"/>
+  <xr:revisionPtr revIDLastSave="420" documentId="13_ncr:1_{76438F66-20F9-4164-B36D-2C14EAB23268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A74B44FE-3D61-40D1-925B-F65C25C5E064}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="5595" windowWidth="22785" windowHeight="13905" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12030" yWindow="5550" windowWidth="22785" windowHeight="13905" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="72">
   <si>
     <t>Method</t>
   </si>
@@ -124,9 +124,6 @@
     <t>Identify capabilities and areas of potential instability of the “rest</t>
   </si>
   <si>
-    <t>api todo list manager”.</t>
-  </si>
-  <si>
     <t>Identify documented and undocumented “rest api todo list manager”</t>
   </si>
   <si>
@@ -254,6 +251,12 @@
   </si>
   <si>
     <t>Verify that unallowed methods are properly blocked from new requests and returns the correct status code</t>
+  </si>
+  <si>
+    <t>api todo list manager” related to the todos capabilities.</t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
 </sst>
 </file>
@@ -373,7 +376,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -439,6 +442,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent2" xfId="1" builtinId="33"/>
@@ -1079,6 +1085,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -1327,7 +1337,7 @@
     </row>
     <row r="2" spans="1:9" ht="120" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>4</v>
@@ -1336,22 +1346,22 @@
         <v>5</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:9" ht="120" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>7</v>
@@ -1360,7 +1370,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>9</v>
@@ -1371,7 +1381,7 @@
     </row>
     <row r="4" spans="1:9" ht="120" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>10</v>
@@ -1380,22 +1390,22 @@
         <v>5</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:9" ht="120" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>11</v>
@@ -1404,7 +1414,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>9</v>
@@ -1415,7 +1425,7 @@
     </row>
     <row r="6" spans="1:9" ht="120" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>12</v>
@@ -1424,46 +1434,46 @@
         <v>8</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="120" customHeight="1">
       <c r="A7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>35</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:9" ht="120" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>13</v>
@@ -1472,7 +1482,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>9</v>
@@ -1483,7 +1493,7 @@
     </row>
     <row r="9" spans="1:9" ht="120" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>4</v>
@@ -1492,13 +1502,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="11"/>
@@ -1506,7 +1516,7 @@
     </row>
     <row r="10" spans="1:9" ht="120" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>7</v>
@@ -1515,13 +1525,13 @@
         <v>5</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="11"/>
@@ -1529,7 +1539,7 @@
     </row>
     <row r="11" spans="1:9" ht="120" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>10</v>
@@ -1538,23 +1548,23 @@
         <v>5</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" ht="120" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>11</v>
@@ -1563,23 +1573,23 @@
         <v>5</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" ht="120" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>12</v>
@@ -1588,38 +1598,38 @@
         <v>8</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>6</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" ht="120" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="16"/>
@@ -1627,7 +1637,7 @@
     </row>
     <row r="15" spans="1:9" ht="120" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>13</v>
@@ -1636,7 +1646,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>9</v>
@@ -3065,7 +3075,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1"/>
@@ -3103,9 +3113,11 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
-      <c r="A3" s="2"/>
+      <c r="A3" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="B3" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3131,7 +3143,7 @@
     <row r="5" spans="1:8" ht="15" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -3143,7 +3155,7 @@
     <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -3155,7 +3167,7 @@
     <row r="7" spans="1:8" ht="15" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -3167,7 +3179,7 @@
     <row r="8" spans="1:8" ht="15" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3179,7 +3191,7 @@
     <row r="9" spans="1:8" ht="15" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3191,7 +3203,7 @@
     <row r="10" spans="1:8" ht="15" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3203,7 +3215,7 @@
     <row r="11" spans="1:8" ht="15" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -3227,7 +3239,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -3239,7 +3251,7 @@
     <row r="14" spans="1:8" ht="15" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -3251,7 +3263,7 @@
     <row r="15" spans="1:8" ht="15" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -3263,7 +3275,7 @@
     <row r="16" spans="1:8" ht="15" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -3275,7 +3287,7 @@
     <row r="17" spans="1:10" ht="15" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -3309,7 +3321,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -3318,13 +3330,13 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="J20" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -3333,13 +3345,13 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="J21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -3353,7 +3365,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -3365,7 +3377,7 @@
     <row r="24" spans="1:10" ht="15" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3377,7 +3389,7 @@
     <row r="25" spans="1:10" ht="15" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3389,13 +3401,13 @@
     <row r="26" spans="1:10" ht="15" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1">

--- a/Documents/Session Notes/SessionNotes_1.xlsx
+++ b/Documents/Session Notes/SessionNotes_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcgill-my.sharepoint.com/personal/qi_chen6_mail_mcgill_ca/Documents/ECSE 429/ECSE429SoftwareTesting/Documents/Session Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="420" documentId="13_ncr:1_{76438F66-20F9-4164-B36D-2C14EAB23268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A74B44FE-3D61-40D1-925B-F65C25C5E064}"/>
+  <xr:revisionPtr revIDLastSave="421" documentId="13_ncr:1_{76438F66-20F9-4164-B36D-2C14EAB23268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E26AEC8-64B9-4FDF-B066-26C9B8FF69D1}"/>
   <bookViews>
-    <workbookView xWindow="12030" yWindow="5550" windowWidth="22785" windowHeight="13905" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -777,15 +777,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>6228521</xdr:colOff>
+      <xdr:colOff>8282</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1128088</xdr:rowOff>
+      <xdr:rowOff>1152936</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>121551</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>328617</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>459058</xdr:rowOff>
+      <xdr:rowOff>483906</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -808,7 +808,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22189108" y="4176088"/>
+          <a:off x="15968869" y="4200936"/>
           <a:ext cx="12735965" cy="2378970"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1289,7 +1289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I175"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -3074,7 +3074,7 @@
   </sheetPr>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
